--- a/backend/data/temp/Ventas.xlsx
+++ b/backend/data/temp/Ventas.xlsx
@@ -397,9 +397,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS6"/>
+  <dimension ref="A1:AS5"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
@@ -443,67 +443,73 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="B4" t="str">
-        <v>22 de enero de 2026 19:19 hs.</v>
+        <v>26 de enero de 2026 11:31 hs.</v>
       </c>
       <c r="F4" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" t="str">
-        <v>22791</v>
+        <v>10755</v>
       </c>
       <c r="L4" t="str">
-        <v>27576.64</v>
+        <v>13014</v>
       </c>
       <c r="N4" t="str">
-        <v>633496</v>
+        <v>633237</v>
       </c>
       <c r="R4" t="str">
-        <v>11395</v>
+        <v>10755</v>
+      </c>
+      <c r="S4" t="str">
+        <v>V</v>
+      </c>
+      <c r="T4" t="str">
+        <v/>
       </c>
       <c r="U4" t="str">
-        <v>Miguel Bestia</v>
+        <v>Fausto Cantallops</v>
       </c>
       <c r="V4" t="str">
-        <v>WBO4L5jFQtalEX5NyFBtFUNyTvt2</v>
+        <v>DNI 42234462</v>
       </c>
       <c r="W4" t="str">
-        <v>Berutti - Bahía Blanca - C.P.: 8000 - buenos-aires</v>
+        <v>Catamarca 955, Córdoba - C.P.: 5004, cordoba</v>
       </c>
       <c r="X4" t="str">
         <v>05</v>
       </c>
       <c r="Y4" t="str">
-        <v>Miguel Bestia</v>
+        <v>Fausto Cantallops</v>
       </c>
       <c r="Z4" t="str">
-        <v>WBO4L5jFQtalEX5NyFBtFUNyTvt2</v>
+        <v>42234462</v>
       </c>
       <c r="AA4" t="str">
         <v/>
       </c>
       <c r="AB4" t="str">
-        <v>Bahía Blanca</v>
+        <v>Córdoba</v>
       </c>
       <c r="AC4" t="str">
-        <v>buenos-aires</v>
+        <v>cordoba</v>
       </c>
       <c r="AD4" t="str">
-        <v>8000</v>
+        <v>5004</v>
       </c>
       <c r="AE4" t="str">
-        <v>Argentina</v>
+        <v>ARGENTINA</v>
       </c>
       <c r="AF4" t="str">
-        <v>Colecta de Mercado Envíos - Código: 360000102051739</v>
+        <v>ANDREANI</v>
       </c>
       <c r="AG4" t="str">
         <v>Mercado Pago</v>
       </c>
       <c r="AH4" t="str">
-        <v>142455975749</v>
+        <v>143570235042</v>
       </c>
       <c r="AI4" t="str">
         <v>Aprobado</v>
@@ -518,116 +524,27 @@
         <v>Dinero en Cuenta</v>
       </c>
       <c r="AM4" t="str">
-        <v>22-01-2026 19:19</v>
+        <v>26 de enero de 2026 11:31 hs.</v>
       </c>
       <c r="AN4" t="str">
-        <v>22791</v>
+        <v>10755</v>
       </c>
       <c r="AO4" t="str">
-        <v>21856</v>
+        <v>10314</v>
       </c>
       <c r="AP4" t="str">
-        <v>934</v>
+        <v>441</v>
       </c>
       <c r="AQ4" t="str">
         <v>1</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>41</v>
-      </c>
-      <c r="B5" t="str">
-        <v>23 de enero de 2026 10:37 hs.</v>
-      </c>
-      <c r="F5" t="str">
-        <v>1</v>
-      </c>
-      <c r="G5" t="str">
-        <v>14651</v>
-      </c>
-      <c r="L5" t="str">
-        <v>17727.73</v>
-      </c>
-      <c r="N5" t="str">
-        <v>633500</v>
-      </c>
-      <c r="R5" t="str">
-        <v>14651</v>
-      </c>
-      <c r="U5" t="str">
+      <c r="AS4" t="str">
         <v>Fausto Cantallops</v>
-      </c>
-      <c r="V5" t="str">
-        <v>WBO4L5jFQtalEX5NyFBtFUNyTvt2</v>
-      </c>
-      <c r="W5" t="str">
-        <v>San Lorenzo - Bernardo Larroudé - C.P.: 5000 - la-pampa</v>
-      </c>
-      <c r="X5" t="str">
-        <v>05</v>
-      </c>
-      <c r="Y5" t="str">
-        <v>Fausto Cantallops</v>
-      </c>
-      <c r="Z5" t="str">
-        <v>WBO4L5jFQtalEX5NyFBtFUNyTvt2</v>
-      </c>
-      <c r="AA5" t="str">
-        <v/>
-      </c>
-      <c r="AB5" t="str">
-        <v>Bernardo Larroudé</v>
-      </c>
-      <c r="AC5" t="str">
-        <v>la-pampa</v>
-      </c>
-      <c r="AD5" t="str">
-        <v>5000</v>
-      </c>
-      <c r="AE5" t="str">
-        <v>Argentina</v>
-      </c>
-      <c r="AF5" t="str">
-        <v>Colecta de Mercado Envíos - Código: 360000102065179</v>
-      </c>
-      <c r="AG5" t="str">
-        <v>Mercado Pago</v>
-      </c>
-      <c r="AH5" t="str">
-        <v>142528587705</v>
-      </c>
-      <c r="AI5" t="str">
-        <v>Aprobado</v>
-      </c>
-      <c r="AJ5" t="str">
-        <v>Acreditado</v>
-      </c>
-      <c r="AK5" t="str">
-        <v>Dinero en Cuenta</v>
-      </c>
-      <c r="AL5" t="str">
-        <v>Dinero en Cuenta</v>
-      </c>
-      <c r="AM5" t="str">
-        <v>23-01-2026 10:38</v>
-      </c>
-      <c r="AN5" t="str">
-        <v>14651</v>
-      </c>
-      <c r="AO5" t="str">
-        <v>14050</v>
-      </c>
-      <c r="AP5" t="str">
-        <v>601</v>
-      </c>
-      <c r="AQ5" t="str">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AS6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AS5"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/backend/data/temp/Ventas.xlsx
+++ b/backend/data/temp/Ventas.xlsx
@@ -1,41 +1,182 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10110"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fausmac/code/maxshop/backend/backend/data/temp/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{015CF9C5-DA46-4E4C-9643-B092F1990DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="660" windowWidth="29400" windowHeight="18460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Ventas AR" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="50">
+  <si>
+    <t>Aprobado</t>
+  </si>
+  <si>
+    <t>Acreditado</t>
+  </si>
+  <si>
+    <t>Dinero en Cuenta</t>
+  </si>
+  <si>
+    <t>00000043</t>
+  </si>
+  <si>
+    <t>27 de enero de 2026 19:01 hs.</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>21510</t>
+  </si>
+  <si>
+    <t>633237</t>
+  </si>
+  <si>
+    <t>10755</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Juan Lopez</t>
+  </si>
+  <si>
+    <t>DNI 35233221</t>
+  </si>
+  <si>
+    <t>Calle 37 55, General Pico - C.P.: 6360, La Pampa</t>
+  </si>
+  <si>
+    <t>35233221</t>
+  </si>
+  <si>
+    <t>General Pico</t>
+  </si>
+  <si>
+    <t>6360</t>
+  </si>
+  <si>
+    <t>ARGENTINA</t>
+  </si>
+  <si>
+    <t>143079432305</t>
+  </si>
+  <si>
+    <t>20628</t>
+  </si>
+  <si>
+    <t>882</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>00000044</t>
+  </si>
+  <si>
+    <t>27 de enero de 2026 19:18 hs.</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Luciano Vietto</t>
+  </si>
+  <si>
+    <t>DNI 23232323</t>
+  </si>
+  <si>
+    <t>Juan B. Justo 343, La Carlota - C.P.: 2670, Cordoba</t>
+  </si>
+  <si>
+    <t>23232323</t>
+  </si>
+  <si>
+    <t>La Carlota</t>
+  </si>
+  <si>
+    <t>2670</t>
+  </si>
+  <si>
+    <t>143757448316</t>
+  </si>
+  <si>
+    <t>131996</t>
+  </si>
+  <si>
+    <t>126584</t>
+  </si>
+  <si>
+    <t>5412</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>56220</t>
+  </si>
+  <si>
+    <t>633240</t>
+  </si>
+  <si>
+    <t>14055</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>54266</t>
+  </si>
+  <si>
+    <t>633307</t>
+  </si>
+  <si>
+    <t>18089</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>CF</t>
+  </si>
+  <si>
+    <t>ANDREANI</t>
+  </si>
+  <si>
+    <t>MP</t>
+  </si>
+  <si>
+    <t>CORDOBA - RECANALIZACION</t>
+  </si>
+  <si>
+    <t>PROCESAMIENTO CIT POSTAL</t>
+  </si>
+  <si>
+    <t>https://apisqa.andreani.com/v2/ordenes-de-envio/API0000000520498/etiquetas?bulto=1</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -65,13 +206,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,155 +545,478 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AW4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="AM1" workbookViewId="0">
+      <selection activeCell="AX1" sqref="AX1:AX1048576"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="35.6640625" customWidth="1"/>
+    <col min="45" max="45" width="17.5" customWidth="1"/>
+    <col min="47" max="47" width="29.1640625" customWidth="1"/>
+    <col min="49" max="49" width="84.5" customWidth="1"/>
+    <col min="50" max="50" width="29.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="AL1" t="str">
-        <v>importante</v>
-      </c>
-      <c r="AS1" t="str">
-        <v>tabllist</v>
+    <row r="1" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1">
+        <v>21510</v>
+      </c>
+      <c r="N1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W1" t="s">
+        <v>12</v>
+      </c>
+      <c r="X1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT1">
+        <v>360000102675858</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="2">
-      <c r="AA2" t="str">
-        <v>Ventas</v>
+    <row r="2" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R2" t="s">
+        <v>8</v>
+      </c>
+      <c r="S2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V2" t="s">
+        <v>25</v>
+      </c>
+      <c r="W2" t="s">
+        <v>26</v>
+      </c>
+      <c r="X2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AT2">
+        <v>360000102675859</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="3">
-      <c r="AA3" t="str">
-        <v># de venta    1</v>
-      </c>
-      <c r="AB3" t="str">
-        <v>Fecha de venta 2</v>
-      </c>
-      <c r="AF3" t="str">
-        <v>Unidades 6</v>
-      </c>
-      <c r="AG3" t="str">
-        <v xml:space="preserve">Total 7 </v>
-      </c>
-      <c r="AL3" t="str">
-        <v>Estado  12   Si v iene en cero quiere decir que el pedido tiene más de 1 artículo</v>
-      </c>
-      <c r="AN3" t="str">
-        <v>SKU 14</v>
-      </c>
-      <c r="AR3" t="str">
-        <v>Precio unitario (ARS) 18</v>
-      </c>
-      <c r="AS3" t="str">
-        <v xml:space="preserve">codigo lista de precios    19    </v>
+    <row r="3" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R3" t="s">
+        <v>37</v>
+      </c>
+      <c r="S3" t="s">
+        <v>9</v>
+      </c>
+      <c r="T3" t="s">
+        <v>43</v>
+      </c>
+      <c r="U3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V3" t="s">
+        <v>25</v>
+      </c>
+      <c r="W3" t="s">
+        <v>26</v>
+      </c>
+      <c r="X3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AT3">
+        <v>360000102675859</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="str">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" t="s">
+        <v>40</v>
+      </c>
+      <c r="R4" t="s">
+        <v>41</v>
+      </c>
+      <c r="S4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="str">
-        <v>26 de enero de 2026 11:31 hs.</v>
-      </c>
-      <c r="F4" t="str">
+      <c r="T4" t="s">
+        <v>43</v>
+      </c>
+      <c r="U4" t="s">
+        <v>24</v>
+      </c>
+      <c r="V4" t="s">
+        <v>25</v>
+      </c>
+      <c r="W4" t="s">
+        <v>26</v>
+      </c>
+      <c r="X4" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="s">
         <v>1</v>
       </c>
-      <c r="G4" t="str">
-        <v>10755</v>
-      </c>
-      <c r="L4" t="str">
-        <v>13014</v>
-      </c>
-      <c r="N4" t="str">
-        <v>633237</v>
-      </c>
-      <c r="R4" t="str">
-        <v>10755</v>
-      </c>
-      <c r="S4" t="str">
-        <v>V</v>
-      </c>
-      <c r="T4" t="str">
-        <v/>
-      </c>
-      <c r="U4" t="str">
-        <v>Fausto Cantallops</v>
-      </c>
-      <c r="V4" t="str">
-        <v>DNI 42234462</v>
-      </c>
-      <c r="W4" t="str">
-        <v>Catamarca 955, Córdoba - C.P.: 5004, cordoba</v>
-      </c>
-      <c r="X4" t="str">
-        <v>05</v>
-      </c>
-      <c r="Y4" t="str">
-        <v>Fausto Cantallops</v>
-      </c>
-      <c r="Z4" t="str">
-        <v>42234462</v>
-      </c>
-      <c r="AA4" t="str">
-        <v/>
-      </c>
-      <c r="AB4" t="str">
-        <v>Córdoba</v>
-      </c>
-      <c r="AC4" t="str">
-        <v>cordoba</v>
-      </c>
-      <c r="AD4" t="str">
-        <v>5004</v>
-      </c>
-      <c r="AE4" t="str">
-        <v>ARGENTINA</v>
-      </c>
-      <c r="AF4" t="str">
-        <v>ANDREANI</v>
-      </c>
-      <c r="AG4" t="str">
-        <v>Mercado Pago</v>
-      </c>
-      <c r="AH4" t="str">
-        <v>143570235042</v>
-      </c>
-      <c r="AI4" t="str">
-        <v>Aprobado</v>
-      </c>
-      <c r="AJ4" t="str">
-        <v>Acreditado</v>
-      </c>
-      <c r="AK4" t="str">
-        <v>Dinero en Cuenta</v>
-      </c>
-      <c r="AL4" t="str">
-        <v>Dinero en Cuenta</v>
-      </c>
-      <c r="AM4" t="str">
-        <v>26 de enero de 2026 11:31 hs.</v>
-      </c>
-      <c r="AN4" t="str">
-        <v>10755</v>
-      </c>
-      <c r="AO4" t="str">
-        <v>10314</v>
-      </c>
-      <c r="AP4" t="str">
-        <v>441</v>
-      </c>
-      <c r="AQ4" t="str">
-        <v>1</v>
-      </c>
-      <c r="AS4" t="str">
-        <v>Fausto Cantallops</v>
+      <c r="AK4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AT4">
+        <v>360000102675859</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AS5"/>
+    <ignoredError sqref="A5:AS5 A1:K1 M1:S1 U1:W1 A2:S2 U2:W2 A3:S3 U3:W3 A4:S4 U4:W4 Y1:AB1 Y2:AB2 Y3:AB3 Y4:AB4 AD1:AE1 AD2:AE2 AD3:AE3 AD4:AE4 AH1:AS1 AH2:AS2 AH3:AS3 AH4:AS4" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>